--- a/Results_May_15_mostrecentupdateAugust3/fish_all_Current_Thesis.xlsx
+++ b/Results_May_15_mostrecentupdateAugust3/fish_all_Current_Thesis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="9288"/>
+    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fish_all" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>K</t>
   </si>
@@ -104,6 +105,21 @@
   </si>
   <si>
     <t>Model Names</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>K*</t>
+  </si>
+  <si>
+    <t>Delta AICc</t>
+  </si>
+  <si>
+    <t>Akaike weight</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
   </si>
 </sst>
 </file>
@@ -113,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +278,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -585,6 +614,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,6 +679,9 @@
     <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="A1:H23"/>
     </sheetView>
   </sheetViews>
@@ -1601,4 +1644,479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1203.3369908586701</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.27023722235758202</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-592.231602225453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1203.82184073602</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.48484987734309498</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.21206126863351901</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-591.374335002154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1204.6818919879599</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.3449011292909701</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.13794424888364801</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-591.80436062812805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1205.17073590581</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.83374504713765</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.108032018524926</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-592.04878258705105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1205.2186435711801</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.8816527125095499</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.105474985266553</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-592.072736419737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1206.0231106717399</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.6861198130634398</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.0544256740504199E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-591.36449651233897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1206.7464861225601</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.4094952638831701</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.9134063044899999E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-591.72618423774804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1206.89163238073</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.5546415220585499</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.5694567308101501E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-591.79875736683596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1216.5493103126901</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13.2123194540186</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.6536458810081102E-4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-589.72920061089098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1217.0270655798599</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13.6900747211916</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.8772872034003698E-4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-589.96807824447797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1218.67018528012</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15.3331944214447</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.26527318685272E-4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-590.78963809460402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1219.18630374697</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15.849312888298799</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.7748612990694594E-5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-591.04769732803095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1260.92332309325</v>
+      </c>
+      <c r="D14" s="6">
+        <v>57.586332234575799</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.4534114367815003E-14</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-625.31880440376699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1261.64172231259</v>
+      </c>
+      <c r="D15" s="6">
+        <v>58.304731453913099</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.9024674217073205E-14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-626.72607442643505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1266.2540517171699</v>
+      </c>
+      <c r="D16" s="6">
+        <v>62.9170608585016</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.8813766652849397E-15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-630.07042208500195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1292.04479328209</v>
+      </c>
+      <c r="D17" s="6">
+        <v>88.707802423420205</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.47601449083243E-20</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-641.92760991118803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1293.5318433477401</v>
+      </c>
+      <c r="D18" s="6">
+        <v>90.194852489068595</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.0174899978462707E-21</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-641.62306453101303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1295.4356953373101</v>
+      </c>
+      <c r="D19" s="6">
+        <v>92.098704478635</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.7087292382839702E-21</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-644.66124389506899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1359.68754907068</v>
+      </c>
+      <c r="D20" s="6">
+        <v>156.35055821200999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.0244947247271401E-35</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-676.78717076175599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1360.83408531806</v>
+      </c>
+      <c r="D21" s="6">
+        <v>157.49709445938601</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.7048479377620499E-35</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-675.274185516172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1361.7534840333799</v>
+      </c>
+      <c r="D22" s="6">
+        <v>158.41649317471001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.07656623392659E-35</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-676.78195528683398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1391.34322260314</v>
+      </c>
+      <c r="D23" s="7">
+        <v>188.00623174446901</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.0430644396792898E-42</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-692.61500752798599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>